--- a/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/RenamedFieldIsRemovedFromPivotTable-output.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/RenamedFieldIsRemovedFromPivotTable-output.xlsx
@@ -429,13 +429,13 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:D2"/>
+  <x:dimension ref="A1:B2"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:4">
+    <x:row r="1" spans="1:2">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -443,7 +443,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:4">
+    <x:row r="2" spans="1:2">
       <x:c r="A2" s="0" t="s">
         <x:v>2</x:v>
       </x:c>

--- a/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/RenamedFieldIsRemovedFromPivotTable-output.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/RenamedFieldIsRemovedFromPivotTable-output.xlsx
@@ -425,7 +425,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>

--- a/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/RenamedFieldIsRemovedFromPivotTable-output.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/RenamedFieldIsRemovedFromPivotTable-output.xlsx
@@ -22,13 +22,13 @@
     <x:t>Pastry</x:t>
   </x:si>
   <x:si>
-    <x:t>Mixture</x:t>
-  </x:si>
-  <x:si>
     <x:t>Waffles</x:t>
   </x:si>
   <x:si>
     <x:t>Puff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mixture</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -440,15 +440,15 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2">
       <x:c r="A2" s="0" t="s">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/RenamedFieldIsRemovedFromPivotTable-output.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/RenamedFieldIsRemovedFromPivotTable-output.xlsx
@@ -6,7 +6,7 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <x:sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>

--- a/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/RenamedFieldIsRemovedFromPivotTable-output.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/RenamedFieldIsRemovedFromPivotTable-output.xlsx
@@ -483,5 +483,10 @@
 </file>
 
 <file path=pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotCacheRecords xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<pivotCacheRecords xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="xr">
+  <r>
+    <s v="Waffles"/>
+    <s v="Puff"/>
+  </r>
+</pivotCacheRecords>
 </file>
--- a/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/RenamedFieldIsRemovedFromPivotTable-output.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/RenamedFieldIsRemovedFromPivotTable-output.xlsx
@@ -92,42 +92,30 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvt" cacheId="0" dataCaption="Values" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" indent="1">
-  <x:location ref="D1" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <x:pivotFields count="2">
-    <x:pivotField name="Pastry" axis="axisRow" dataField="1" showAll="0" defaultSubtotal="0">
-      <x:items count="1">
-        <x:item x="0"/>
-      </x:items>
-    </x:pivotField>
-    <x:pivotField name="Mixture" defaultSubtotal="0"/>
-  </x:pivotFields>
-  <x:rowFields count="1">
-    <x:field x="0"/>
-  </x:rowFields>
-  <x:rowItems count="2">
-    <x:i>
-      <x:x v="0"/>
-    </x:i>
-    <x:i t="grand">
-      <x:x/>
-    </x:i>
-  </x:rowItems>
-  <x:colItems count="1">
-    <x:i i="0">
-      <x:x v="0"/>
-    </x:i>
-  </x:colItems>
-  <x:dataFields count="1">
-    <x:dataField name="Pastry" fld="0" subtotal="count" showDataAs="normal" baseField="0" baseItem="0" numFmtId="0"/>
-  </x:dataFields>
-  <x:pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0"/>
-  <x:extLst>
-    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" enableEdit="0" hideValuesRow="1"/>
-    </x:ext>
-  </x:extLst>
-</x:pivotTableDefinition>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvt" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" outline="1">
+  <location ref="D1" firstHeaderRow="0" firstDataRow="0" firstDataCol="0"/>
+  <pivotFields count="2">
+    <pivotField name="Pastry" axis="axisRow" dataField="1" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <dataFields count="1">
+    <dataField name="Pastry" fld="0" subtotal="count"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition enableEdit="0" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
